--- a/codes-club/Clubs 63 Nom+Code page1.xlsx
+++ b/codes-club/Clubs 63 Nom+Code page1.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guillaume\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AD7305-07BB-4A4F-835C-B8DD89B18655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{D6B866D2-4D5A-4BD1-A8DF-938E286753CC}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>JUDO AVENTURE PASSION 63</t>
   </si>
@@ -129,19 +123,13 @@
   </si>
   <si>
     <t>JUDO CLUB RANDAN</t>
-  </si>
-  <si>
-    <t>Nom-du-club</t>
-  </si>
-  <si>
-    <t>Code-du-club</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,7 +220,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -284,7 +272,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -478,43 +466,43 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4BB250-8695-4A14-ABC2-0DCFAD189B97}">
-  <dimension ref="A1:B41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="47.85546875" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9990</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -522,39 +510,39 @@
         <v>9990</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>9990</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>11328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -562,7 +550,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -570,31 +558,31 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9990</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -602,227 +590,219 @@
         <v>9990</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>1</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>9990</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B17">
-        <v>9990</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7043</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>7043</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20">
-        <v>8262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8828</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>8828</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>10989</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>11431</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>16</v>
       </c>
-      <c r="B25">
+      <c r="B31">
         <v>8588</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29">
-        <v>10989</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30">
-        <v>11431</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31">
-        <v>2114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B32">
-        <v>8588</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10910</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B33">
-        <v>10910</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B34">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B35">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9444</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B36">
-        <v>9444</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B37">
-        <v>2085</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B38">
-        <v>2072</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B39">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B40">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41">
         <v>2117</v>
       </c>
     </row>
